--- a/resources/experiment 1/predictions/multiple/LinearRegression/average time/Neuropatías.xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/average time/Neuropatías.xlsx
@@ -590,10 +590,10 @@
         <v>2.627735266507333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.100994655135649</v>
+        <v>1.100994655135651</v>
       </c>
       <c r="C8" t="n">
-        <v>4.784788835186497</v>
+        <v>4.784788835186495</v>
       </c>
       <c r="D8" t="n">
         <v>17.86467116240024</v>
@@ -630,7 +630,7 @@
         <v>3.508076256195938</v>
       </c>
       <c r="B10" t="n">
-        <v>1.731889583907451</v>
+        <v>1.731889583907453</v>
       </c>
       <c r="C10" t="n">
         <v>6.083139451064586</v>
@@ -679,7 +679,7 @@
         <v>32.44766096070757</v>
       </c>
       <c r="E12" t="n">
-        <v>27.77788126134063</v>
+        <v>27.77788126134062</v>
       </c>
       <c r="F12" t="n">
         <v>37.20112355511643</v>
@@ -696,7 +696,7 @@
         <v>11.98773418845418</v>
       </c>
       <c r="D13" t="n">
-        <v>26.76072593259111</v>
+        <v>26.76072593259112</v>
       </c>
       <c r="E13" t="n">
         <v>24.06580151202939</v>
@@ -710,7 +710,7 @@
         <v>10.06703766846214</v>
       </c>
       <c r="B14" t="n">
-        <v>7.441081225481542</v>
+        <v>7.441081225481543</v>
       </c>
       <c r="C14" t="n">
         <v>13.3557167191268</v>
@@ -819,7 +819,7 @@
         <v>30.5947404290338</v>
       </c>
       <c r="E19" t="n">
-        <v>26.81955574110675</v>
+        <v>26.81955574110674</v>
       </c>
       <c r="F19" t="n">
         <v>34.47981269817014</v>
@@ -879,7 +879,7 @@
         <v>21.8720777372164</v>
       </c>
       <c r="E22" t="n">
-        <v>19.99578133422551</v>
+        <v>19.9957813342255</v>
       </c>
       <c r="F22" t="n">
         <v>23.89042219105571</v>
@@ -970,7 +970,7 @@
         <v>10.11400200923579</v>
       </c>
       <c r="B27" t="n">
-        <v>7.044527942215897</v>
+        <v>7.044527942215898</v>
       </c>
       <c r="C27" t="n">
         <v>14.05900321477404</v>
@@ -1050,7 +1050,7 @@
         <v>9.186696678773533</v>
       </c>
       <c r="B31" t="n">
-        <v>6.810186296709741</v>
+        <v>6.810186296709743</v>
       </c>
       <c r="C31" t="n">
         <v>12.05736610324871</v>
@@ -1070,7 +1070,7 @@
         <v>5.982184784889533</v>
       </c>
       <c r="B32" t="n">
-        <v>3.980797082678774</v>
+        <v>3.980797082678775</v>
       </c>
       <c r="C32" t="n">
         <v>8.749472597615306</v>
@@ -1093,7 +1093,7 @@
         <v>7.446122546832759</v>
       </c>
       <c r="C33" t="n">
-        <v>13.42139574480634</v>
+        <v>13.42139574480635</v>
       </c>
       <c r="D33" t="n">
         <v>25.70609223365908</v>
@@ -1199,7 +1199,7 @@
         <v>29.6230615179186</v>
       </c>
       <c r="E38" t="n">
-        <v>26.218573575686</v>
+        <v>26.21857357568599</v>
       </c>
       <c r="F38" t="n">
         <v>33.10918790049296</v>
@@ -1310,7 +1310,7 @@
         <v>10.02007332768848</v>
       </c>
       <c r="B44" t="n">
-        <v>7.837634508747188</v>
+        <v>7.837634508747189</v>
       </c>
       <c r="C44" t="n">
         <v>12.65243022347957</v>
@@ -1322,7 +1322,7 @@
         <v>17.84241219688938</v>
       </c>
       <c r="F44" t="n">
-        <v>23.63410566201182</v>
+        <v>23.63410566201183</v>
       </c>
     </row>
     <row r="45">
@@ -1350,7 +1350,7 @@
         <v>8.351336976434389</v>
       </c>
       <c r="B46" t="n">
-        <v>6.194415331991587</v>
+        <v>6.194415331991588</v>
       </c>
       <c r="C46" t="n">
         <v>10.95605256440924</v>
@@ -1370,10 +1370,10 @@
         <v>5.148808135974585</v>
       </c>
       <c r="B47" t="n">
-        <v>2.953348870641326</v>
+        <v>2.953348870641328</v>
       </c>
       <c r="C47" t="n">
-        <v>8.154408477384447</v>
+        <v>8.154408477384445</v>
       </c>
       <c r="D47" t="n">
         <v>23.81925771802657</v>
@@ -1399,7 +1399,7 @@
         <v>32.42505163806841</v>
       </c>
       <c r="E48" t="n">
-        <v>27.71697155868873</v>
+        <v>27.71697155868872</v>
       </c>
       <c r="F48" t="n">
         <v>37.19613887051442</v>
@@ -1470,7 +1470,7 @@
         <v>7.575952323894526</v>
       </c>
       <c r="B52" t="n">
-        <v>5.598809652678296</v>
+        <v>5.598809652678297</v>
       </c>
       <c r="C52" t="n">
         <v>10.11745512828793</v>
@@ -1499,7 +1499,7 @@
         <v>34.38353628019816</v>
       </c>
       <c r="E53" t="n">
-        <v>29.4514905648803</v>
+        <v>29.45149056488029</v>
       </c>
       <c r="F53" t="n">
         <v>39.36029559314406</v>
@@ -1550,10 +1550,10 @@
         <v>9.261665491022633</v>
       </c>
       <c r="B56" t="n">
-        <v>6.83539290346582</v>
+        <v>6.835392903465821</v>
       </c>
       <c r="C56" t="n">
-        <v>12.38576123164641</v>
+        <v>12.38576123164642</v>
       </c>
       <c r="D56" t="n">
         <v>23.73630293020975</v>
@@ -1570,10 +1570,10 @@
         <v>5.967191022439714</v>
       </c>
       <c r="B57" t="n">
-        <v>3.975755761327559</v>
+        <v>3.97575576132756</v>
       </c>
       <c r="C57" t="n">
-        <v>8.683793571935764</v>
+        <v>8.683793571935766</v>
       </c>
       <c r="D57" t="n">
         <v>20.81744403828436</v>
@@ -1582,7 +1582,7 @@
         <v>18.67951538549897</v>
       </c>
       <c r="F57" t="n">
-        <v>23.08193621229719</v>
+        <v>23.0819362122972</v>
       </c>
     </row>
     <row r="58">
@@ -1610,7 +1610,7 @@
         <v>11.64581144501731</v>
       </c>
       <c r="B59" t="n">
-        <v>9.054052474129849</v>
+        <v>9.05405247412985</v>
       </c>
       <c r="C59" t="n">
         <v>14.65802022411989</v>
@@ -1630,7 +1630,7 @@
         <v>26.41747685835398</v>
       </c>
       <c r="B60" t="n">
-        <v>22.11061361268242</v>
+        <v>22.11061361268241</v>
       </c>
       <c r="C60" t="n">
         <v>30.83387339363512</v>
@@ -1650,7 +1650,7 @@
         <v>10.90239737080128</v>
       </c>
       <c r="B61" t="n">
-        <v>8.056852190199695</v>
+        <v>8.056852190199697</v>
       </c>
       <c r="C61" t="n">
         <v>14.45703025796627</v>
@@ -1682,7 +1682,7 @@
         <v>23.2286983234198</v>
       </c>
       <c r="F62" t="n">
-        <v>30.14152988370681</v>
+        <v>30.14152988370682</v>
       </c>
     </row>
     <row r="63">
@@ -1699,7 +1699,7 @@
         <v>31.63806946664625</v>
       </c>
       <c r="E63" t="n">
-        <v>28.10536683850733</v>
+        <v>28.10536683850732</v>
       </c>
       <c r="F63" t="n">
         <v>35.28580633462765</v>
@@ -1730,7 +1730,7 @@
         <v>5.116837557650749</v>
       </c>
       <c r="B65" t="n">
-        <v>3.354943475258189</v>
+        <v>3.354943475258191</v>
       </c>
       <c r="C65" t="n">
         <v>7.516801007416754</v>
@@ -1742,7 +1742,7 @@
         <v>16.85363182532955</v>
       </c>
       <c r="F65" t="n">
-        <v>20.91030246276452</v>
+        <v>20.91030246276453</v>
       </c>
     </row>
     <row r="66">
@@ -1810,7 +1810,7 @@
         <v>5.193789423324045</v>
       </c>
       <c r="B69" t="n">
-        <v>2.968472834694975</v>
+        <v>2.968472834694976</v>
       </c>
       <c r="C69" t="n">
         <v>8.351445554423067</v>
@@ -1862,7 +1862,7 @@
         <v>18.77028286579731</v>
       </c>
       <c r="F71" t="n">
-        <v>26.3529241766571</v>
+        <v>26.35292417665711</v>
       </c>
     </row>
     <row r="72">
